--- a/Collections/Евро/Slovenia/#EURO#Slovenia#Commemorative#[2007-present]#circulation_quality%varieties.xlsx
+++ b/Collections/Евро/Slovenia/#EURO#Slovenia#Commemorative#[2007-present]#circulation_quality%varieties.xlsx
@@ -41,7 +41,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F2" authorId="0" shapeId="0">
+    <comment ref="E2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -57,7 +57,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G2" authorId="0" shapeId="0">
+    <comment ref="F2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -73,7 +73,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H2" authorId="0" shapeId="0">
+    <comment ref="G2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -89,7 +89,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I2" authorId="0" shapeId="0">
+    <comment ref="H2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -105,7 +105,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J2" authorId="0" shapeId="0">
+    <comment ref="I2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -121,7 +121,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K2" authorId="0" shapeId="0">
+    <comment ref="J2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -137,7 +137,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L2" authorId="0" shapeId="0">
+    <comment ref="K2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -153,7 +153,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M2" authorId="0" shapeId="0">
+    <comment ref="L2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -174,7 +174,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="42">
   <si>
     <t>Year</t>
   </si>
@@ -192,9 +192,6 @@
   </si>
   <si>
     <t>Subtype_2</t>
-  </si>
-  <si>
-    <t>Subtype_3</t>
   </si>
   <si>
     <t>NL</t>
@@ -564,7 +561,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="2" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
@@ -606,6 +603,25 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="3" fontId="2" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -618,8 +634,14 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -627,36 +649,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -665,39 +659,7 @@
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
     <cellStyle name="Обычный 2" xfId="2"/>
   </cellStyles>
-  <dxfs count="7">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="3">
     <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -728,9 +690,9 @@
     <filterColumn colId="2" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="3">
-    <tableColumn id="1" name="№" dataDxfId="6"/>
-    <tableColumn id="2" name="Link" dataDxfId="5" dataCellStyle="Гиперссылка"/>
-    <tableColumn id="3" name="Description (single table, table set, mintage, prices):" dataDxfId="4"/>
+    <tableColumn id="1" name="№" dataDxfId="2"/>
+    <tableColumn id="2" name="Link" dataDxfId="1" dataCellStyle="Гиперссылка"/>
+    <tableColumn id="3" name="Description (single table, table set, mintage, prices):" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="1" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
@@ -999,548 +961,530 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N16"/>
+  <dimension ref="A1:M16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="14" ySplit="2" topLeftCell="O3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="13" ySplit="2" topLeftCell="N3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="M1" sqref="M1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D14" sqref="D14"/>
+      <selection pane="bottomRight" activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="5.453125" customWidth="1"/>
     <col min="2" max="2" width="48.6328125" customWidth="1"/>
-    <col min="3" max="5" width="24.6328125" customWidth="1"/>
-    <col min="6" max="8" width="12.453125" customWidth="1"/>
-    <col min="9" max="9" width="12.453125" style="22" customWidth="1"/>
-    <col min="10" max="12" width="3.81640625" customWidth="1"/>
-    <col min="13" max="13" width="3.81640625" style="22" customWidth="1"/>
-    <col min="14" max="14" width="13.7265625" customWidth="1"/>
+    <col min="3" max="4" width="24.6328125" customWidth="1"/>
+    <col min="5" max="7" width="12.453125" customWidth="1"/>
+    <col min="8" max="8" width="12.453125" style="15" customWidth="1"/>
+    <col min="9" max="11" width="3.81640625" customWidth="1"/>
+    <col min="12" max="12" width="3.81640625" style="15" customWidth="1"/>
+    <col min="13" max="13" width="13.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A1" s="15" t="s">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A1" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="17" t="s">
+      <c r="C1" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="18"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="20" t="s">
+      <c r="D1" s="25"/>
+      <c r="E1" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="21"/>
-      <c r="H1" s="21"/>
-      <c r="I1" s="28"/>
-      <c r="J1" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="K1" s="24"/>
-      <c r="L1" s="24"/>
-      <c r="M1" s="25"/>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A2" s="16"/>
-      <c r="B2" s="16"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="31"/>
+      <c r="I1" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="J1" s="27"/>
+      <c r="K1" s="27"/>
+      <c r="L1" s="28"/>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A2" s="23"/>
+      <c r="B2" s="23"/>
       <c r="C2" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="G2" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="I2" s="3" t="s">
+      <c r="J2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="K2" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="J2" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="K2" s="4" t="s">
-        <v>7</v>
-      </c>
       <c r="L2" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="M2" s="4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A3" s="5">
         <v>2007</v>
       </c>
-      <c r="B3" s="31" t="s">
-        <v>10</v>
+      <c r="B3" s="20" t="s">
+        <v>9</v>
       </c>
       <c r="C3" s="6"/>
       <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="27" t="s">
-        <v>31</v>
-      </c>
+      <c r="E3" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="F3" s="7"/>
       <c r="G3" s="7"/>
-      <c r="H3" s="7"/>
-      <c r="I3" s="26"/>
-      <c r="J3" s="29">
+      <c r="H3" s="16"/>
+      <c r="I3" s="18">
         <v>0</v>
       </c>
-      <c r="K3" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="L3" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="M3" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="N3" s="8" t="str">
-        <f>IF(OR(AND(J3&gt;1,J3&lt;&gt;"-"),AND(K3&gt;1,K3&lt;&gt;"-"),AND(L3&gt;1,L3&lt;&gt;"-")),"Can exchange","")</f>
+      <c r="J3" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="K3" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="L3" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="M3" s="8" t="str">
+        <f t="shared" ref="M3:M16" si="0">IF(OR(AND(I3&gt;1,I3&lt;&gt;"-"),AND(J3&gt;1,J3&lt;&gt;"-"),AND(K3&gt;1,K3&lt;&gt;"-")),"Can exchange","")</f>
         <v/>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A4" s="5">
         <v>2008</v>
       </c>
-      <c r="B4" s="31" t="s">
-        <v>33</v>
+      <c r="B4" s="20" t="s">
+        <v>32</v>
       </c>
       <c r="C4" s="6"/>
       <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="27" t="s">
-        <v>32</v>
-      </c>
-      <c r="H4" s="7"/>
-      <c r="I4" s="26"/>
-      <c r="J4" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="K4" s="29">
+      <c r="E4" s="7"/>
+      <c r="F4" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="G4" s="7"/>
+      <c r="H4" s="16"/>
+      <c r="I4" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="J4" s="18">
         <v>0</v>
       </c>
-      <c r="L4" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="M4" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="N4" s="8" t="str">
-        <f>IF(OR(AND(J4&gt;1,J4&lt;&gt;"-"),AND(K4&gt;1,K4&lt;&gt;"-"),AND(L4&gt;1,L4&lt;&gt;"-")),"Can exchange","")</f>
+      <c r="K4" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="L4" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="M4" s="8" t="str">
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A5" s="5">
         <v>2009</v>
       </c>
-      <c r="B5" s="31" t="s">
-        <v>11</v>
+      <c r="B5" s="20" t="s">
+        <v>10</v>
       </c>
       <c r="C5" s="6"/>
       <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="27" t="s">
-        <v>32</v>
-      </c>
+      <c r="E5" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="F5" s="7"/>
       <c r="G5" s="7"/>
-      <c r="H5" s="7"/>
-      <c r="I5" s="26"/>
-      <c r="J5" s="29">
+      <c r="H5" s="16"/>
+      <c r="I5" s="18">
         <v>0</v>
       </c>
-      <c r="K5" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="L5" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="M5" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="N5" s="8" t="str">
-        <f>IF(OR(AND(J5&gt;1,J5&lt;&gt;"-"),AND(K5&gt;1,K5&lt;&gt;"-"),AND(L5&gt;1,L5&lt;&gt;"-")),"Can exchange","")</f>
+      <c r="J5" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="K5" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="L5" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="M5" s="8" t="str">
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A6" s="5">
         <v>2010</v>
       </c>
-      <c r="B6" s="31" t="s">
-        <v>34</v>
+      <c r="B6" s="20" t="s">
+        <v>33</v>
       </c>
       <c r="C6" s="6"/>
       <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="27" t="s">
-        <v>32</v>
-      </c>
+      <c r="E6" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="F6" s="7"/>
       <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
-      <c r="I6" s="26"/>
-      <c r="J6" s="29">
+      <c r="H6" s="16"/>
+      <c r="I6" s="18">
         <v>0</v>
       </c>
-      <c r="K6" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="L6" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="M6" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="N6" s="8" t="str">
-        <f>IF(OR(AND(J6&gt;1,J6&lt;&gt;"-"),AND(K6&gt;1,K6&lt;&gt;"-"),AND(L6&gt;1,L6&lt;&gt;"-")),"Can exchange","")</f>
+      <c r="J6" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="K6" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="L6" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="M6" s="8" t="str">
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A7" s="5">
         <v>2011</v>
       </c>
-      <c r="B7" s="31" t="s">
-        <v>35</v>
+      <c r="B7" s="20" t="s">
+        <v>34</v>
       </c>
       <c r="C7" s="6"/>
       <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="27" t="s">
-        <v>32</v>
-      </c>
+      <c r="E7" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="F7" s="7"/>
       <c r="G7" s="7"/>
-      <c r="H7" s="7"/>
-      <c r="I7" s="26"/>
-      <c r="J7" s="29">
+      <c r="H7" s="16"/>
+      <c r="I7" s="18">
         <v>0</v>
       </c>
-      <c r="K7" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="L7" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="M7" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="N7" s="8" t="str">
-        <f>IF(OR(AND(J7&gt;1,J7&lt;&gt;"-"),AND(K7&gt;1,K7&lt;&gt;"-"),AND(L7&gt;1,L7&lt;&gt;"-")),"Can exchange","")</f>
+      <c r="J7" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="K7" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="L7" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="M7" s="8" t="str">
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A8" s="5">
         <v>2012</v>
       </c>
-      <c r="B8" s="31" t="s">
-        <v>12</v>
+      <c r="B8" s="20" t="s">
+        <v>11</v>
       </c>
       <c r="C8" s="6"/>
       <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
+      <c r="E8" s="7"/>
       <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="27" t="s">
-        <v>32</v>
-      </c>
-      <c r="I8" s="26"/>
-      <c r="J8" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="K8" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="L8" s="29">
+      <c r="G8" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="H8" s="16"/>
+      <c r="I8" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="J8" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="K8" s="18">
         <v>0</v>
       </c>
-      <c r="M8" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="N8" s="8" t="str">
-        <f>IF(OR(AND(J8&gt;1,J8&lt;&gt;"-"),AND(K8&gt;1,K8&lt;&gt;"-"),AND(L8&gt;1,L8&lt;&gt;"-")),"Can exchange","")</f>
+      <c r="L8" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="M8" s="8" t="str">
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A9" s="5">
         <v>2013</v>
       </c>
-      <c r="B9" s="31" t="s">
-        <v>36</v>
+      <c r="B9" s="20" t="s">
+        <v>35</v>
       </c>
       <c r="C9" s="6"/>
       <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
+      <c r="E9" s="7"/>
       <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="27" t="s">
-        <v>32</v>
-      </c>
-      <c r="I9" s="26"/>
-      <c r="J9" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="K9" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="L9" s="29">
+      <c r="G9" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="H9" s="16"/>
+      <c r="I9" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="J9" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="K9" s="18">
         <v>0</v>
       </c>
-      <c r="M9" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="N9" s="8" t="str">
-        <f>IF(OR(AND(J9&gt;1,J9&lt;&gt;"-"),AND(K9&gt;1,K9&lt;&gt;"-"),AND(L9&gt;1,L9&lt;&gt;"-")),"Can exchange","")</f>
+      <c r="L9" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="M9" s="8" t="str">
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A10" s="5">
         <v>2014</v>
       </c>
-      <c r="B10" s="31" t="s">
-        <v>37</v>
+      <c r="B10" s="20" t="s">
+        <v>36</v>
       </c>
       <c r="C10" s="6"/>
       <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="27" t="s">
-        <v>32</v>
-      </c>
-      <c r="H10" s="7"/>
-      <c r="I10" s="26"/>
-      <c r="J10" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="K10" s="29">
+      <c r="E10" s="7"/>
+      <c r="F10" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="G10" s="7"/>
+      <c r="H10" s="16"/>
+      <c r="I10" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="J10" s="18">
         <v>0</v>
       </c>
-      <c r="L10" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="M10" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="N10" s="8" t="str">
-        <f>IF(OR(AND(J10&gt;1,J10&lt;&gt;"-"),AND(K10&gt;1,K10&lt;&gt;"-"),AND(L10&gt;1,L10&lt;&gt;"-")),"Can exchange","")</f>
+      <c r="K10" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="L10" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="M10" s="8" t="str">
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A11" s="5">
         <v>2015</v>
       </c>
-      <c r="B11" s="31" t="s">
-        <v>38</v>
+      <c r="B11" s="20" t="s">
+        <v>37</v>
       </c>
       <c r="C11" s="6"/>
       <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
+      <c r="E11" s="7"/>
       <c r="F11" s="7"/>
-      <c r="G11" s="7"/>
-      <c r="H11" s="27" t="s">
-        <v>32</v>
-      </c>
-      <c r="I11" s="26"/>
-      <c r="J11" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="K11" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="L11" s="29">
+      <c r="G11" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="H11" s="16"/>
+      <c r="I11" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="J11" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="K11" s="18">
         <v>0</v>
       </c>
-      <c r="M11" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="N11" s="8" t="str">
-        <f>IF(OR(AND(J11&gt;1,J11&lt;&gt;"-"),AND(K11&gt;1,K11&lt;&gt;"-"),AND(L11&gt;1,L11&lt;&gt;"-")),"Can exchange","")</f>
+      <c r="L11" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="M11" s="8" t="str">
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A12" s="5">
         <v>2015</v>
       </c>
-      <c r="B12" s="31" t="s">
-        <v>13</v>
+      <c r="B12" s="20" t="s">
+        <v>12</v>
       </c>
       <c r="C12" s="6"/>
       <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
+      <c r="E12" s="7"/>
       <c r="F12" s="7"/>
-      <c r="G12" s="7"/>
-      <c r="H12" s="27" t="s">
-        <v>32</v>
-      </c>
-      <c r="I12" s="26"/>
-      <c r="J12" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="K12" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="L12" s="29">
+      <c r="G12" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="H12" s="16"/>
+      <c r="I12" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="J12" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="K12" s="18">
         <v>0</v>
       </c>
-      <c r="M12" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="N12" s="8" t="str">
-        <f>IF(OR(AND(J12&gt;1,J12&lt;&gt;"-"),AND(K12&gt;1,K12&lt;&gt;"-"),AND(L12&gt;1,L12&lt;&gt;"-")),"Can exchange","")</f>
+      <c r="L12" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="M12" s="8" t="str">
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A13" s="5">
         <v>2016</v>
       </c>
-      <c r="B13" s="31" t="s">
-        <v>39</v>
+      <c r="B13" s="20" t="s">
+        <v>38</v>
       </c>
       <c r="C13" s="6"/>
       <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
+      <c r="E13" s="7"/>
       <c r="F13" s="7"/>
       <c r="G13" s="7"/>
-      <c r="H13" s="7"/>
-      <c r="I13" s="27" t="s">
-        <v>32</v>
-      </c>
-      <c r="J13" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="K13" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="L13" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="M13" s="29">
+      <c r="H13" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="I13" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="J13" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="K13" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="L13" s="18">
         <v>0</v>
       </c>
-      <c r="N13" s="8" t="str">
-        <f>IF(OR(AND(J13&gt;1,J13&lt;&gt;"-"),AND(K13&gt;1,K13&lt;&gt;"-"),AND(L13&gt;1,L13&lt;&gt;"-")),"Can exchange","")</f>
+      <c r="M13" s="8" t="str">
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A14" s="5">
         <v>2017</v>
       </c>
-      <c r="B14" s="31" t="s">
-        <v>40</v>
+      <c r="B14" s="20" t="s">
+        <v>39</v>
       </c>
       <c r="C14" s="6"/>
       <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
+      <c r="E14" s="7"/>
       <c r="F14" s="7"/>
-      <c r="G14" s="7"/>
-      <c r="H14" s="27" t="s">
-        <v>32</v>
-      </c>
-      <c r="I14" s="26"/>
-      <c r="J14" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="K14" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="L14" s="29">
+      <c r="G14" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="H14" s="16"/>
+      <c r="I14" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="J14" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="K14" s="18">
         <v>0</v>
       </c>
-      <c r="M14" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="N14" s="8" t="str">
-        <f>IF(OR(AND(J14&gt;1,J14&lt;&gt;"-"),AND(K14&gt;1,K14&lt;&gt;"-"),AND(L14&gt;1,L14&lt;&gt;"-")),"Can exchange","")</f>
+      <c r="L14" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="M14" s="8" t="str">
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A15" s="5">
         <v>2018</v>
       </c>
-      <c r="B15" s="31" t="s">
-        <v>41</v>
+      <c r="B15" s="20" t="s">
+        <v>40</v>
       </c>
       <c r="C15" s="6"/>
       <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
+      <c r="E15" s="7"/>
       <c r="F15" s="7"/>
-      <c r="G15" s="7"/>
-      <c r="H15" s="27" t="s">
-        <v>32</v>
-      </c>
-      <c r="I15" s="26"/>
-      <c r="J15" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="K15" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="L15" s="29">
+      <c r="G15" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="H15" s="16"/>
+      <c r="I15" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="J15" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="K15" s="18">
         <v>0</v>
       </c>
-      <c r="M15" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="N15" s="8" t="str">
-        <f>IF(OR(AND(J15&gt;1,J15&lt;&gt;"-"),AND(K15&gt;1,K15&lt;&gt;"-"),AND(L15&gt;1,L15&lt;&gt;"-")),"Can exchange","")</f>
+      <c r="L15" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="M15" s="8" t="str">
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A16" s="5">
         <v>2019</v>
       </c>
-      <c r="B16" s="31" t="s">
-        <v>42</v>
-      </c>
-      <c r="C16" s="32"/>
+      <c r="B16" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="C16" s="21"/>
       <c r="D16" s="6"/>
-      <c r="E16" s="6"/>
+      <c r="E16" s="7"/>
       <c r="F16" s="7"/>
-      <c r="G16" s="7"/>
-      <c r="H16" s="27" t="s">
-        <v>32</v>
-      </c>
-      <c r="I16" s="26"/>
-      <c r="J16" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="K16" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="L16" s="29">
+      <c r="G16" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="H16" s="16"/>
+      <c r="I16" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="J16" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="K16" s="18">
         <v>0</v>
       </c>
-      <c r="M16" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="N16" s="8" t="str">
-        <f>IF(OR(AND(J16&gt;1,J16&lt;&gt;"-"),AND(K16&gt;1,K16&lt;&gt;"-"),AND(L16&gt;1,L16&lt;&gt;"-")),"Can exchange","")</f>
+      <c r="L16" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="M16" s="8" t="str">
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -1548,9 +1492,9 @@
   <mergeCells count="5">
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="J1:M1"/>
-    <mergeCell ref="F1:I1"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="I1:L1"/>
+    <mergeCell ref="E1:H1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -1576,13 +1520,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="C1" s="13" t="s">
         <v>16</v>
-      </c>
-      <c r="C1" s="13" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
@@ -1590,10 +1534,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="11" t="s">
         <v>18</v>
-      </c>
-      <c r="C2" s="11" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
@@ -1601,10 +1545,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" s="11" t="s">
         <v>20</v>
-      </c>
-      <c r="C3" s="11" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
@@ -1612,10 +1556,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="11" t="s">
         <v>22</v>
-      </c>
-      <c r="C4" s="11" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
@@ -1623,10 +1567,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" s="11" t="s">
         <v>24</v>
-      </c>
-      <c r="C5" s="11" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
@@ -1634,10 +1578,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" s="12" t="s">
         <v>26</v>
-      </c>
-      <c r="C6" s="12" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
@@ -1645,10 +1589,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
